--- a/biology/Botanique/Walt_Minnick/Walt_Minnick.xlsx
+++ b/biology/Botanique/Walt_Minnick/Walt_Minnick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Walter Clifford « Walt » Minnick, (né le 20 septembre 1942), est un homme politique américain, membre du parti démocrate et représentant du premier district de l'Idaho à la Chambre des représentants des États-Unis de 2009 à 2011.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie personnelle
-Walt Minnick est né à Walla Walla dans l'État de Washington. En 1964, il obtient son baccalauréat au Whitman College, peu après il intègre la Harvard Business School où il sera diplômé d'un master en administration des affaires. En 1969, il obtient un juris Doctor à la faculté de droit de Harvard.
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walt Minnick est né à Walla Walla dans l'État de Washington. En 1964, il obtient son baccalauréat au Whitman College, peu après il intègre la Harvard Business School où il sera diplômé d'un master en administration des affaires. En 1969, il obtient un juris Doctor à la faculté de droit de Harvard.
 Minnick est un homme d'affaires et homme politique qui réside à Boise. Minnick est aussi un vétéran qui a servi dans l'armée et au Pentagone pendant la guerre du Viêt Nam. Minnick fut également chef dans l'industrie forestière et le fondateur d'une chaîne de pépinières spécialisée dans la vente au détail, la SummerWinds Garden Centers.
 </t>
         </is>
@@ -547,15 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candidature au Sénat des États-Unis (1996)
-En 1996, Minnick annonce sa candidature au sénat américain contre le sénateur républicain Larry Craig. Même s'il remporte l'investiture démocrate sans aucune opposition[1], il sera néanmoins sévèrement battu par le sénateur républicain[2].
-Représentant des États-Unis (2009—2011)
-Le 27 mai 2008, Minnick est investi sans opposition par le parti démocrate pour le siège de représentant occupé par Bill Sali[3].
-Le 4 novembre 2008, à la surprise générale, il bat le représentant républicain Bill Sali[4].
-Le 3 janvier 2009, il prête serment et devient représentant. Peu après, il rejoint la coalition conservatrice Blue Dog[5].
-Il vote contre la réforme de santé et contre la plupart des lois importantes soutenues par le président Obama et la majorité démocrate. Dans le 111e congrès, il était considéré comme le représentant démocrate le plus conservateur[6].
-Candidat sans succès à un second mandat
-De nouveau investi sans opposition par les démocrates en 2010[7], Minnick a été battu par le républicain Raúl Labrador[8], et ce malgré le soutien qu'il a reçu du Tea Party[9].
+          <t>Candidature au Sénat des États-Unis (1996)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1996, Minnick annonce sa candidature au sénat américain contre le sénateur républicain Larry Craig. Même s'il remporte l'investiture démocrate sans aucune opposition, il sera néanmoins sévèrement battu par le sénateur républicain.
 </t>
         </is>
       </c>
@@ -581,10 +596,93 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Représentant des États-Unis (2009—2011)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 27 mai 2008, Minnick est investi sans opposition par le parti démocrate pour le siège de représentant occupé par Bill Sali.
+Le 4 novembre 2008, à la surprise générale, il bat le représentant républicain Bill Sali.
+Le 3 janvier 2009, il prête serment et devient représentant. Peu après, il rejoint la coalition conservatrice Blue Dog.
+Il vote contre la réforme de santé et contre la plupart des lois importantes soutenues par le président Obama et la majorité démocrate. Dans le 111e congrès, il était considéré comme le représentant démocrate le plus conservateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Walt_Minnick</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walt_Minnick</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Représentant des États-Unis (2009—2011)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Candidat sans succès à un second mandat</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nouveau investi sans opposition par les démocrates en 2010, Minnick a été battu par le républicain Raúl Labrador, et ce malgré le soutien qu'il a reçu du Tea Party.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Walt_Minnick</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walt_Minnick</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Histoire électorale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Légende : ..Parti démocrate.. ..Parti républicain.. ..Parti libertarien.. ..Parti de la loi naturelle.. ..Indépendant.. * sortant
 </t>
